--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACDE/20/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACDE/20/seed1/result_data_RandomForest.xlsx
@@ -491,12 +491,12 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>15.7183</v>
+        <v>15.8494</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.44849999999999</v>
+        <v>-21.50719999999999</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.53630000000001</v>
+        <v>-22.64560000000002</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -547,13 +547,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-19.70499999999998</v>
+        <v>-19.34899999999999</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-11.84320000000002</v>
+        <v>-12.06</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-22.41050000000001</v>
+        <v>-22.37040000000001</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -621,7 +621,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-11.1427</v>
+        <v>-11.2931</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -638,13 +638,13 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-10.8171</v>
+        <v>-10.9554</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.401799999999998</v>
+        <v>-7.442199999999997</v>
       </c>
       <c r="E12" t="n">
-        <v>17.10140000000001</v>
+        <v>17.0475</v>
       </c>
     </row>
     <row r="13">
@@ -658,10 +658,10 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.557499999999999</v>
+        <v>-8.638599999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>15.9228</v>
+        <v>15.8895</v>
       </c>
     </row>
     <row r="14">
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.9293</v>
+        <v>-7.957799999999994</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.8694</v>
+        <v>-14.69779999999999</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.725</v>
+        <v>-21.60859999999999</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -709,7 +709,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-9.215000000000005</v>
+        <v>-9.104500000000007</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-8.269599999999995</v>
+        <v>-8.153600000000001</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -768,16 +768,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-19.79929999999999</v>
+        <v>-19.8452</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-11.86190000000001</v>
+        <v>-12.07700000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>-7.451300000000002</v>
+        <v>-7.399000000000004</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -785,13 +785,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.00829999999998</v>
+        <v>-19.86789999999999</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.13930000000001</v>
+        <v>-12.0234</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -808,13 +808,13 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.23449999999999</v>
+        <v>-12.07199999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.338400000000002</v>
+        <v>-8.426300000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>16.6063</v>
+        <v>16.62119999999999</v>
       </c>
     </row>
     <row r="23">
@@ -825,7 +825,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-11.83770000000001</v>
+        <v>-11.90720000000001</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -865,7 +865,7 @@
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>17.14020000000001</v>
+        <v>16.99400000000001</v>
       </c>
     </row>
     <row r="26">
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.87959999999999</v>
+        <v>-21.7612</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,24 +921,24 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.50059999999998</v>
+        <v>-21.46629999999998</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-12.0332</v>
+        <v>-11.64450000000001</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
       </c>
       <c r="E29" t="n">
-        <v>17.60580000000001</v>
+        <v>17.3171</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-21.49519999999999</v>
+        <v>-21.5717</v>
       </c>
       <c r="B30" t="n">
         <v>5.27</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.23549999999999</v>
+        <v>-21.2516</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1012,13 +1012,13 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-11.24730000000001</v>
+        <v>-11.26580000000001</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
       </c>
       <c r="E34" t="n">
-        <v>17.53890000000001</v>
+        <v>17.5963</v>
       </c>
     </row>
     <row r="35">
@@ -1049,7 +1049,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-8.566699999999996</v>
+        <v>-8.703699999999996</v>
       </c>
       <c r="E36" t="n">
         <v>15.99</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.95340000000001</v>
+        <v>-20.35860000000001</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.0427</v>
+        <v>-11.96739999999999</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1165,13 +1165,13 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-13.32669999999999</v>
+        <v>-13.66009999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.095900000000002</v>
+        <v>-8.1241</v>
       </c>
       <c r="E43" t="n">
-        <v>16.5053</v>
+        <v>16.56929999999999</v>
       </c>
     </row>
     <row r="44">
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.86059999999999</v>
+        <v>-14.0243</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.63279999999999</v>
+        <v>-13.58049999999999</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1210,16 +1210,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-22.08030000000001</v>
+        <v>-22.0303</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-13.3096</v>
+        <v>-13.0355</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.8207</v>
+        <v>-8.731100000000003</v>
       </c>
       <c r="E46" t="n">
         <v>16.03</v>
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.43220000000001</v>
+        <v>17.55640000000001</v>
       </c>
     </row>
     <row r="49">
@@ -1284,10 +1284,10 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-14.07769999999999</v>
+        <v>-14.10209999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>-7.990899999999998</v>
+        <v>-7.9693</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1295,13 +1295,13 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-21.55530000000001</v>
+        <v>-21.6251</v>
       </c>
       <c r="B51" t="n">
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.1009</v>
+        <v>-11.00510000000001</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.2025</v>
+        <v>-22.2448</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,13 +1397,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.2425</v>
+        <v>-22.2061</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.02139999999999</v>
+        <v>-14.17539999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.3874</v>
+        <v>-22.36140000000001</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1460,7 +1460,7 @@
         <v>-9.630000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>15.22830000000001</v>
+        <v>15.43290000000001</v>
       </c>
     </row>
     <row r="61">
@@ -1482,7 +1482,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-22.30050000000001</v>
+        <v>-22.28380000000001</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1539,7 +1539,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.95499999999999</v>
+        <v>-13.1046</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1550,13 +1550,13 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.8921</v>
+        <v>-21.8132</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.7392</v>
+        <v>-11.2614</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-10.971</v>
+        <v>-10.9585</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1596,7 +1596,7 @@
         <v>-7.27</v>
       </c>
       <c r="E68" t="n">
-        <v>17.71360000000002</v>
+        <v>17.76490000000002</v>
       </c>
     </row>
     <row r="69">
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>18.21110000000002</v>
+        <v>18.23380000000002</v>
       </c>
     </row>
     <row r="71">
@@ -1647,7 +1647,7 @@
         <v>-7.44</v>
       </c>
       <c r="E71" t="n">
-        <v>17.22360000000001</v>
+        <v>17.02700000000001</v>
       </c>
     </row>
     <row r="72">
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.89050000000001</v>
+        <v>-20.6273</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1681,12 +1681,12 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>17.43370000000002</v>
+        <v>17.44940000000002</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.98119999999998</v>
+        <v>-22.06809999999998</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1729,7 +1729,7 @@
         <v>-15.06</v>
       </c>
       <c r="D76" t="n">
-        <v>-8.003900000000005</v>
+        <v>-7.963400000000006</v>
       </c>
       <c r="E76" t="n">
         <v>16.38</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-19.87209999999999</v>
+        <v>-19.71649999999999</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1766,7 +1766,7 @@
         <v>-6.53</v>
       </c>
       <c r="E78" t="n">
-        <v>17.16920000000002</v>
+        <v>17.16900000000002</v>
       </c>
     </row>
     <row r="79">
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-11.46130000000001</v>
+        <v>-12.13930000000001</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-12.49319999999999</v>
+        <v>-13.26369999999999</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1913,13 +1913,13 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-13.56239999999999</v>
+        <v>-13.4877</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>16.27299999999999</v>
+        <v>16.16709999999998</v>
       </c>
     </row>
     <row r="88">
@@ -1992,19 +1992,19 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.53779999999999</v>
+        <v>-21.5507</v>
       </c>
       <c r="B92" t="n">
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.2376</v>
+        <v>-11.27660000000001</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>18.20970000000002</v>
+        <v>18.29360000000002</v>
       </c>
     </row>
     <row r="93">
@@ -2052,7 +2052,7 @@
         <v>-10.47</v>
       </c>
       <c r="D95" t="n">
-        <v>-8.259699999999999</v>
+        <v>-8.161200000000001</v>
       </c>
       <c r="E95" t="n">
         <v>16.44</v>
@@ -2083,10 +2083,10 @@
         <v>5.08</v>
       </c>
       <c r="C97" t="n">
-        <v>-11.5142</v>
+        <v>-11.5786</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.906299999999995</v>
+        <v>-8.766299999999996</v>
       </c>
       <c r="E97" t="n">
         <v>15.78</v>
@@ -2120,7 +2120,7 @@
         <v>-15.77</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.392000000000003</v>
+        <v>-8.289600000000005</v>
       </c>
       <c r="E99" t="n">
         <v>16.01</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.1406</v>
+        <v>-22.2042</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>17.06130000000002</v>
+        <v>17.14420000000001</v>
       </c>
     </row>
     <row r="102">
